--- a/Energy Consumption22.xlsx
+++ b/Energy Consumption22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,10 +450,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.332605681160835</v>
+        <v>1.291824554907194</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8114169987564909</v>
+        <v>3.798797808720669</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.032001009090816</v>
+        <v>4.205592449451212</v>
       </c>
       <c r="C3" t="n">
-        <v>1.747226211562423</v>
+        <v>7.799089205519206</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.383371295753395</v>
+        <v>5.751052597704876</v>
       </c>
       <c r="C4" t="n">
-        <v>2.65872841048123</v>
+        <v>11.80723893682239</v>
       </c>
     </row>
     <row r="5">
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.965545480478482</v>
+        <v>8.638708594068996</v>
       </c>
       <c r="C5" t="n">
-        <v>3.735613326293734</v>
+        <v>16.36966594639864</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7.03317224930351</v>
+        <v>9.695222951751587</v>
       </c>
       <c r="C6" t="n">
-        <v>4.565401543396786</v>
+        <v>20.85660928739086</v>
       </c>
     </row>
     <row r="7">
@@ -505,10 +505,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>10.82902129195197</v>
+        <v>11.61535050135384</v>
       </c>
       <c r="C7" t="n">
-        <v>5.386671464193162</v>
+        <v>25.16696213914714</v>
       </c>
     </row>
     <row r="8">
@@ -516,10 +516,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>11.17593322248425</v>
+        <v>12.4584762150205</v>
       </c>
       <c r="C8" t="n">
-        <v>6.824517746591323</v>
+        <v>29.47105023982667</v>
       </c>
     </row>
     <row r="9">
@@ -527,10 +527,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>21.56204789009573</v>
+        <v>17.23736076129476</v>
       </c>
       <c r="C9" t="n">
-        <v>7.666443323029946</v>
+        <v>33.56079632482943</v>
       </c>
     </row>
     <row r="10">
@@ -538,10 +538,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>23.27103756257039</v>
+        <v>19.19797079814772</v>
       </c>
       <c r="C10" t="n">
-        <v>8.463632561750426</v>
+        <v>37.60826945831809</v>
       </c>
     </row>
     <row r="11">
@@ -549,10 +549,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>23.35958224146279</v>
+        <v>20.48604650860038</v>
       </c>
       <c r="C11" t="n">
-        <v>9.427911196185176</v>
+        <v>41.57864695295302</v>
       </c>
     </row>
     <row r="12">
@@ -560,10 +560,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>23.74889437997017</v>
+        <v>20.80151027509101</v>
       </c>
       <c r="C12" t="n">
-        <v>10.38767832366389</v>
+        <v>45.93346337674929</v>
       </c>
     </row>
     <row r="13">
@@ -571,10 +571,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>25.10817851438505</v>
+        <v>24.41973628527606</v>
       </c>
       <c r="C13" t="n">
-        <v>11.16413660403457</v>
+        <v>49.94132166399145</v>
       </c>
     </row>
     <row r="14">
@@ -582,10 +582,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>28.38759098315789</v>
+        <v>26.87939180143032</v>
       </c>
       <c r="C14" t="n">
-        <v>12.15199676707479</v>
+        <v>54.02507766530126</v>
       </c>
     </row>
     <row r="15">
@@ -593,10 +593,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>28.68625124028844</v>
+        <v>27.53614525264342</v>
       </c>
       <c r="C15" t="n">
-        <v>13.01629028339054</v>
+        <v>58.07849739296265</v>
       </c>
     </row>
     <row r="16">
@@ -604,10 +604,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>29.11252926335774</v>
+        <v>31.58296887728824</v>
       </c>
       <c r="C16" t="n">
-        <v>13.88757339544168</v>
+        <v>62.05640333452591</v>
       </c>
     </row>
     <row r="17">
@@ -615,10 +615,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>31.4083100398473</v>
+        <v>34.68704387387611</v>
       </c>
       <c r="C17" t="n">
-        <v>14.70790651585802</v>
+        <v>65.91352199827283</v>
       </c>
     </row>
     <row r="18">
@@ -626,10 +626,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>31.65848778226554</v>
+        <v>38.64743820430902</v>
       </c>
       <c r="C18" t="n">
-        <v>15.66810953847528</v>
+        <v>69.7720871589727</v>
       </c>
     </row>
     <row r="19">
@@ -637,10 +637,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>31.76655569500154</v>
+        <v>40.55907342470277</v>
       </c>
       <c r="C19" t="n">
-        <v>16.57333553206498</v>
+        <v>73.9389129247363</v>
       </c>
     </row>
     <row r="20">
@@ -648,10 +648,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>31.93601730576321</v>
+        <v>42.37943011009924</v>
       </c>
       <c r="C20" t="n">
-        <v>17.39827818169308</v>
+        <v>77.70306917175786</v>
       </c>
     </row>
     <row r="21">
@@ -659,10 +659,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>32.66391017697654</v>
+        <v>44.00395111117064</v>
       </c>
       <c r="C21" t="n">
-        <v>18.49264395709132</v>
+        <v>81.71319173552008</v>
       </c>
     </row>
     <row r="22">
@@ -670,10 +670,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>38.28264099651651</v>
+        <v>44.59922084790226</v>
       </c>
       <c r="C22" t="n">
-        <v>19.29536450360982</v>
+        <v>85.82069074118658</v>
       </c>
     </row>
     <row r="23">
@@ -681,10 +681,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>38.31768481173172</v>
+        <v>46.36562880888329</v>
       </c>
       <c r="C23" t="n">
-        <v>20.10815318563487</v>
+        <v>90.20381831842074</v>
       </c>
     </row>
     <row r="24">
@@ -692,10 +692,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>39.17155324874543</v>
+        <v>48.84714893517194</v>
       </c>
       <c r="C24" t="n">
-        <v>21.01092135139055</v>
+        <v>94.4012615668664</v>
       </c>
     </row>
     <row r="25">
@@ -703,10 +703,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>39.25868693621888</v>
+        <v>52.34175178936282</v>
       </c>
       <c r="C25" t="n">
-        <v>21.86027224495446</v>
+        <v>98.48076229785276</v>
       </c>
     </row>
     <row r="26">
@@ -714,10 +714,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>45.72494683834449</v>
+        <v>54.20255320621909</v>
       </c>
       <c r="C26" t="n">
-        <v>22.62047513424946</v>
+        <v>102.9427312318516</v>
       </c>
     </row>
     <row r="27">
@@ -725,10 +725,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>50.78260016185881</v>
+        <v>56.22843476167699</v>
       </c>
       <c r="C27" t="n">
-        <v>23.47009036072911</v>
+        <v>106.9981732059428</v>
       </c>
     </row>
     <row r="28">
@@ -736,10 +736,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>51.41833472835967</v>
+        <v>57.47847296070766</v>
       </c>
       <c r="C28" t="n">
-        <v>24.2838981764175</v>
+        <v>110.9373131761006</v>
       </c>
     </row>
     <row r="29">
@@ -747,10 +747,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>51.47458163329379</v>
+        <v>58.75910863281327</v>
       </c>
       <c r="C29" t="n">
-        <v>25.18586725674493</v>
+        <v>114.7686029287055</v>
       </c>
     </row>
     <row r="30">
@@ -758,10 +758,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>51.8034056138372</v>
+        <v>63.25519729710583</v>
       </c>
       <c r="C30" t="n">
-        <v>26.01737840666792</v>
+        <v>118.5241117311727</v>
       </c>
     </row>
     <row r="31">
@@ -769,10 +769,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>52.91857901133282</v>
+        <v>63.70922619699857</v>
       </c>
       <c r="C31" t="n">
-        <v>26.88612302138853</v>
+        <v>122.7402153682025</v>
       </c>
     </row>
     <row r="32">
@@ -780,10 +780,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>52.9840158099503</v>
+        <v>64.75464939062627</v>
       </c>
       <c r="C32" t="n">
-        <v>27.73722172088425</v>
+        <v>126.6020810154741</v>
       </c>
     </row>
     <row r="33">
@@ -791,10 +791,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>53.37772619368197</v>
+        <v>66.01779775656644</v>
       </c>
       <c r="C33" t="n">
-        <v>28.60662024898171</v>
+        <v>130.6071938997788</v>
       </c>
     </row>
     <row r="34">
@@ -802,10 +802,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>53.67749496509566</v>
+        <v>68.97855807201829</v>
       </c>
       <c r="C34" t="n">
-        <v>30.01317988262674</v>
+        <v>134.7222737020898</v>
       </c>
     </row>
     <row r="35">
@@ -813,10 +813,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>53.76950843986806</v>
+        <v>70.17208105251981</v>
       </c>
       <c r="C35" t="n">
-        <v>30.85664086283156</v>
+        <v>138.4882093071851</v>
       </c>
     </row>
     <row r="36">
@@ -824,10 +824,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>57.44505812361574</v>
+        <v>70.33896580910114</v>
       </c>
       <c r="C36" t="n">
-        <v>31.91346234441526</v>
+        <v>142.2409714821126</v>
       </c>
     </row>
     <row r="37">
@@ -835,10 +835,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>60.12932964525429</v>
+        <v>71.56168300018982</v>
       </c>
       <c r="C37" t="n">
-        <v>32.74999891642987</v>
+        <v>146.8978061832853</v>
       </c>
     </row>
     <row r="38">
@@ -846,10 +846,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>60.20873482179058</v>
+        <v>72.81298911379822</v>
       </c>
       <c r="C38" t="n">
-        <v>33.67677349330602</v>
+        <v>151.0626736888793</v>
       </c>
     </row>
     <row r="39">
@@ -857,10 +857,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>61.53968519597542</v>
+        <v>74.79068106688069</v>
       </c>
       <c r="C39" t="n">
-        <v>34.52009470995894</v>
+        <v>154.8507455488892</v>
       </c>
     </row>
     <row r="40">
@@ -868,10 +868,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>61.62275924850444</v>
+        <v>76.45065630195799</v>
       </c>
       <c r="C40" t="n">
-        <v>35.41700701378291</v>
+        <v>159.6130097113086</v>
       </c>
     </row>
     <row r="41">
@@ -879,10 +879,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>71.55386871839502</v>
+        <v>78.82412647805121</v>
       </c>
       <c r="C41" t="n">
-        <v>36.42544379906071</v>
+        <v>163.3652432026426</v>
       </c>
     </row>
     <row r="42">
@@ -890,10 +890,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>71.66226713316641</v>
+        <v>80.14467163744452</v>
       </c>
       <c r="C42" t="n">
-        <v>37.22716379447189</v>
+        <v>167.8412029911188</v>
       </c>
     </row>
     <row r="43">
@@ -901,10 +901,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>75.61104279121318</v>
+        <v>80.78554062555102</v>
       </c>
       <c r="C43" t="n">
-        <v>38.07431451676089</v>
+        <v>171.8263159837037</v>
       </c>
     </row>
     <row r="44">
@@ -912,10 +912,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>80.26677821477146</v>
+        <v>82.56064849314504</v>
       </c>
       <c r="C44" t="n">
-        <v>38.97070581587482</v>
+        <v>175.8922167608311</v>
       </c>
     </row>
     <row r="45">
@@ -923,10 +923,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>81.94187391879183</v>
+        <v>86.35548680370798</v>
       </c>
       <c r="C45" t="n">
-        <v>39.90295298639247</v>
+        <v>179.8972974896811</v>
       </c>
     </row>
     <row r="46">
@@ -934,10 +934,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>82.27656795480641</v>
+        <v>88.8724730799278</v>
       </c>
       <c r="C46" t="n">
-        <v>40.91012042225326</v>
+        <v>183.776697798123</v>
       </c>
     </row>
     <row r="47">
@@ -945,10 +945,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>86.70282580502608</v>
+        <v>91.45246408717054</v>
       </c>
       <c r="C47" t="n">
-        <v>41.80869272194991</v>
+        <v>188.323730458367</v>
       </c>
     </row>
     <row r="48">
@@ -956,10 +956,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>89.51774429647193</v>
+        <v>93.52858140436702</v>
       </c>
       <c r="C48" t="n">
-        <v>42.76956311638826</v>
+        <v>192.8312141696829</v>
       </c>
     </row>
     <row r="49">
@@ -967,10 +967,21 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>89.63479796261738</v>
+        <v>96.01149708713098</v>
       </c>
       <c r="C49" t="n">
-        <v>43.76145791946126</v>
+        <v>197.0829639984659</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>99.44543991458504</v>
+      </c>
+      <c r="C50" t="n">
+        <v>200.9484312649789</v>
       </c>
     </row>
   </sheetData>
